--- a/Data/Data_list.xlsx
+++ b/Data/Data_list.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comic\Desktop\CircuitFault_Detection\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC736750-768D-47A1-A5D7-DA489BCF6E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED7D566-C5E4-4214-9EE7-335D5A2EA577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38535" yWindow="915" windowWidth="16050" windowHeight="19875" xr2:uid="{E0F49974-8A92-4DF3-94D5-4F0151BC6DE9}"/>
+    <workbookView xWindow="-21720" yWindow="-10020" windowWidth="21840" windowHeight="38040" xr2:uid="{E0F49974-8A92-4DF3-94D5-4F0151BC6DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="48">
   <si>
     <t>Fault_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Component</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +174,21 @@
   <si>
     <t>FSEN_VSU</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Data_1</t>
+  </si>
+  <si>
+    <t>Data_Type</t>
+  </si>
+  <si>
+    <t>Data_Type_2</t>
   </si>
 </sst>
 </file>
@@ -182,39 +196,54 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -223,11 +252,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,148 +585,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530C5BE1-32B8-4EDB-B92A-6F0CE81EF3CC}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -694,18 +751,21 @@
         <v>0.8</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -714,18 +774,21 @@
         <v>0.9</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -734,18 +797,21 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -754,38 +820,46 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>1.2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -794,18 +868,21 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -814,18 +891,21 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -834,18 +914,24 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -854,38 +940,48 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -894,18 +990,21 @@
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -914,18 +1013,21 @@
         <v>0.4</v>
       </c>
       <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -934,18 +1036,21 @@
         <v>0.3</v>
       </c>
       <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -954,38 +1059,46 @@
         <v>0.2</v>
       </c>
       <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0.1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -994,18 +1107,21 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1014,18 +1130,21 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1034,18 +1153,21 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1054,38 +1176,46 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1094,18 +1224,21 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1114,18 +1247,21 @@
         <v>0.4</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
         <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1134,18 +1270,21 @@
         <v>0.3</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
         <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1154,38 +1293,51 @@
         <v>0.2</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0.1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
       </c>
       <c r="C32">
         <f>100*1000000</f>
@@ -1195,18 +1347,21 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
         <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:C35" si="0">100*1000000</f>
@@ -1216,18 +1371,21 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
         <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -1237,39 +1395,47 @@
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
       </c>
       <c r="C36">
         <v>270</v>
@@ -1278,18 +1444,21 @@
         <v>400</v>
       </c>
       <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
       </c>
       <c r="C37">
         <v>270</v>
@@ -1298,18 +1467,21 @@
         <v>600</v>
       </c>
       <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
       </c>
       <c r="C38">
         <v>270</v>
@@ -1318,38 +1490,46 @@
         <v>800</v>
       </c>
       <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="3">
+        <v>270</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
-      <c r="C39">
-        <v>270</v>
-      </c>
-      <c r="D39">
-        <v>1000</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>31</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
       </c>
       <c r="C40">
         <v>270</v>
@@ -1358,18 +1538,21 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
         <v>31</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
       </c>
       <c r="C41">
         <v>270</v>
@@ -1378,58 +1561,71 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2">
+        <v>270</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="3">
+        <v>270</v>
+      </c>
+      <c r="D43" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>32</v>
       </c>
-      <c r="C42">
-        <v>270</v>
-      </c>
-      <c r="D42">
-        <v>50</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43">
-        <v>270</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
       </c>
       <c r="C44">
         <v>10000</v>
@@ -1438,18 +1634,21 @@
         <v>15000</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
         <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
       </c>
       <c r="C45">
         <v>10000</v>
@@ -1458,78 +1657,96 @@
         <v>20000</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
         <v>34</v>
       </c>
-      <c r="C46">
-        <v>10000</v>
-      </c>
-      <c r="D46">
-        <v>25000</v>
-      </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47">
-        <v>10000</v>
-      </c>
-      <c r="D47">
-        <v>30000</v>
-      </c>
-      <c r="E47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48">
-        <v>10000</v>
-      </c>
-      <c r="D48">
-        <v>35000</v>
-      </c>
-      <c r="E48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>35</v>
-      </c>
-      <c r="B49" t="s">
-        <v>36</v>
       </c>
       <c r="C49">
         <v>10000</v>
@@ -1538,18 +1755,21 @@
         <v>9000</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
         <v>35</v>
-      </c>
-      <c r="B50" t="s">
-        <v>36</v>
       </c>
       <c r="C50">
         <v>10000</v>
@@ -1558,18 +1778,21 @@
         <v>8000</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
         <v>35</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
       </c>
       <c r="C51">
         <v>10000</v>
@@ -1578,58 +1801,71 @@
         <v>7000</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>36</v>
       </c>
-      <c r="C52">
-        <v>10000</v>
-      </c>
-      <c r="D52">
-        <v>6000</v>
-      </c>
-      <c r="E52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53">
-        <v>10000</v>
-      </c>
-      <c r="D53">
-        <v>5000</v>
-      </c>
-      <c r="E53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>37</v>
-      </c>
-      <c r="B54" t="s">
-        <v>38</v>
       </c>
       <c r="C54">
         <v>10000</v>
@@ -1638,98 +1874,121 @@
         <v>12000</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D56" s="2">
+        <v>16000</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>18000</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="C55">
-        <v>10000</v>
-      </c>
-      <c r="D55">
-        <v>14000</v>
-      </c>
-      <c r="E55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56">
-        <v>10000</v>
-      </c>
-      <c r="D56">
-        <v>16000</v>
-      </c>
-      <c r="E56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57">
-        <v>10000</v>
-      </c>
-      <c r="D57">
-        <v>18000</v>
-      </c>
-      <c r="E57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58">
-        <v>10000</v>
-      </c>
-      <c r="D58">
-        <v>20000</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>39</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
       </c>
       <c r="C59">
         <v>10000</v>
@@ -1738,18 +1997,21 @@
         <v>8000</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
         <v>39</v>
-      </c>
-      <c r="B60" t="s">
-        <v>40</v>
       </c>
       <c r="C60">
         <v>10000</v>
@@ -1758,18 +2020,21 @@
         <v>6000</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
         <v>39</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
       </c>
       <c r="C61">
         <v>10000</v>
@@ -1778,18 +2043,21 @@
         <v>4000</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
         <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
       </c>
       <c r="C62">
         <v>10000</v>
@@ -1798,18 +2066,21 @@
         <v>2000</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
         <v>39</v>
-      </c>
-      <c r="B63" t="s">
-        <v>40</v>
       </c>
       <c r="C63">
         <v>10000</v>
@@ -1818,13 +2089,17 @@
         <v>1000</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{530C5BE1-32B8-4EDB-B92A-6F0CE81EF3CC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Data/Data_list.xlsx
+++ b/Data/Data_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comic\Desktop\CircuitFault_Detection\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED7D566-C5E4-4214-9EE7-335D5A2EA577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795C3C9-9E61-4F14-9DA2-2D4EF6C42AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-10020" windowWidth="21840" windowHeight="38040" xr2:uid="{E0F49974-8A92-4DF3-94D5-4F0151BC6DE9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -585,10 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530C5BE1-32B8-4EDB-B92A-6F0CE81EF3CC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,7 +632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -671,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -691,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -714,7 +715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -737,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -783,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -806,7 +807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -829,7 +830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -854,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -900,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -926,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -949,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -976,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="3" t="s">
         <v>32</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="3" t="s">
         <v>34</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="2" t="s">
         <v>36</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2099,7 +2100,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{530C5BE1-32B8-4EDB-B92A-6F0CE81EF3CC}"/>
+  <autoFilter ref="A1:I63" xr:uid="{530C5BE1-32B8-4EDB-B92A-6F0CE81EF3CC}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Test"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Data/Data_list.xlsx
+++ b/Data/Data_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comic\Desktop\CircuitFault_Detection\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795C3C9-9E61-4F14-9DA2-2D4EF6C42AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4218C0-38E5-41D7-8FE2-B42471181D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-10020" windowWidth="21840" windowHeight="38040" xr2:uid="{E0F49974-8A92-4DF3-94D5-4F0151BC6DE9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="48">
   <si>
     <t>Fault_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,11 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530C5BE1-32B8-4EDB-B92A-6F0CE81EF3CC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,7 +631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -672,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -692,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -715,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -738,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -784,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -807,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -830,7 +829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -855,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -901,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -927,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -946,11 +945,14 @@
       <c r="G15" t="s">
         <v>12</v>
       </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -977,7 +979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1094,7 +1096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1">
+    <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1">
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1">
+    <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
@@ -1934,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
         <v>36</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -1984,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2076,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2100,13 +2102,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I63" xr:uid="{530C5BE1-32B8-4EDB-B92A-6F0CE81EF3CC}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Test"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I63" xr:uid="{530C5BE1-32B8-4EDB-B92A-6F0CE81EF3CC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
